--- a/codigo/results_cec_batch/cec2017_HHO_D30.xlsx
+++ b/codigo/results_cec_batch/cec2017_HHO_D30.xlsx
@@ -605,94 +605,94 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>79198158.3200821</v>
+        <v>10447658410.97321</v>
       </c>
       <c r="C2" t="n">
         <v>10000000000</v>
       </c>
       <c r="D2" t="n">
-        <v>84424.79300381029</v>
+        <v>88650.24545024676</v>
       </c>
       <c r="E2" t="n">
-        <v>45007.12007921125</v>
+        <v>57769.79632805617</v>
       </c>
       <c r="F2" t="n">
-        <v>905.3393672512008</v>
+        <v>816.7810497148467</v>
       </c>
       <c r="G2" t="n">
-        <v>710.099433964961</v>
+        <v>696.7594535395951</v>
       </c>
       <c r="H2" t="n">
-        <v>1399.686857589036</v>
+        <v>1438.536266742324</v>
       </c>
       <c r="I2" t="n">
-        <v>1008.619250348063</v>
+        <v>1046.589704250905</v>
       </c>
       <c r="J2" t="n">
-        <v>26148.63584520194</v>
+        <v>12098.86281066354</v>
       </c>
       <c r="K2" t="n">
-        <v>6915.699787095599</v>
+        <v>6216.550044526774</v>
       </c>
       <c r="L2" t="n">
-        <v>32442.68729702056</v>
+        <v>2236.539447156736</v>
       </c>
       <c r="M2" t="n">
-        <v>15333598504.99858</v>
+        <v>20730346011.87828</v>
       </c>
       <c r="N2" t="n">
-        <v>8178852550.839333</v>
+        <v>2203443.135583546</v>
       </c>
       <c r="O2" t="n">
-        <v>19539351.11049246</v>
+        <v>175886949.8499235</v>
       </c>
       <c r="P2" t="n">
-        <v>514414.4201923676</v>
+        <v>9839457877.004196</v>
       </c>
       <c r="Q2" t="n">
-        <v>5138.387082288328</v>
+        <v>4624.429047196098</v>
       </c>
       <c r="R2" t="n">
-        <v>4449.679725976404</v>
+        <v>3420.988876977148</v>
       </c>
       <c r="S2" t="n">
-        <v>161601781.6878871</v>
+        <v>1968392.372041312</v>
       </c>
       <c r="T2" t="n">
-        <v>2155827488.107224</v>
+        <v>4446147541.136262</v>
       </c>
       <c r="U2" t="n">
-        <v>2913.04815489184</v>
+        <v>3277.379503047337</v>
       </c>
       <c r="V2" t="n">
-        <v>2975.255798250982</v>
+        <v>2771.935684733654</v>
       </c>
       <c r="W2" t="n">
-        <v>8676.816554380448</v>
+        <v>9073.411133451737</v>
       </c>
       <c r="X2" t="n">
-        <v>3464.482705844621</v>
+        <v>4116.458573144133</v>
       </c>
       <c r="Y2" t="n">
-        <v>3677.707981641056</v>
+        <v>3813.118862986146</v>
       </c>
       <c r="Z2" t="n">
-        <v>4448.110327218956</v>
+        <v>7752.369076677808</v>
       </c>
       <c r="AA2" t="n">
-        <v>17362.05651712585</v>
+        <v>10966.04351053807</v>
       </c>
       <c r="AB2" t="n">
-        <v>3200.007499572233</v>
+        <v>3200.007496417169</v>
       </c>
       <c r="AC2" t="n">
-        <v>3300.007455329385</v>
+        <v>3300.007271046322</v>
       </c>
       <c r="AD2" t="n">
-        <v>6747.558836242597</v>
+        <v>9639.6451545854</v>
       </c>
       <c r="AE2" t="n">
-        <v>2734225947.59059</v>
+        <v>2149194035.141651</v>
       </c>
       <c r="AF2" t="n">
         <v>30</v>
@@ -708,94 +708,94 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>66890747350.54583</v>
+        <v>3835186688.837193</v>
       </c>
       <c r="C3" t="n">
         <v>10000000000</v>
       </c>
       <c r="D3" t="n">
-        <v>296907.8602639972</v>
+        <v>24599160.16269508</v>
       </c>
       <c r="E3" t="n">
-        <v>28189.51685210885</v>
+        <v>21756.50600919994</v>
       </c>
       <c r="F3" t="n">
-        <v>831.5608630908007</v>
+        <v>821.9241847224824</v>
       </c>
       <c r="G3" t="n">
-        <v>685.8848112954207</v>
+        <v>699.4410393345695</v>
       </c>
       <c r="H3" t="n">
-        <v>1401.382111608664</v>
+        <v>1711.774750199814</v>
       </c>
       <c r="I3" t="n">
-        <v>1216.997117883709</v>
+        <v>1312.6550343351</v>
       </c>
       <c r="J3" t="n">
-        <v>11390.73997381457</v>
+        <v>11129.9545549539</v>
       </c>
       <c r="K3" t="n">
-        <v>9890.204073082919</v>
+        <v>7866.216877575299</v>
       </c>
       <c r="L3" t="n">
-        <v>30882.56521828838</v>
+        <v>3967.293054390536</v>
       </c>
       <c r="M3" t="n">
-        <v>281670686.2579659</v>
+        <v>43373152.29868227</v>
       </c>
       <c r="N3" t="n">
-        <v>37066789977.63387</v>
+        <v>30551300210.08366</v>
       </c>
       <c r="O3" t="n">
-        <v>10607144.99120953</v>
+        <v>58148345.73071352</v>
       </c>
       <c r="P3" t="n">
-        <v>122623.3340999648</v>
+        <v>4584728947.562178</v>
       </c>
       <c r="Q3" t="n">
-        <v>12031.44879416188</v>
+        <v>5406.08385887273</v>
       </c>
       <c r="R3" t="n">
-        <v>6684.237140098778</v>
+        <v>5606.668914740672</v>
       </c>
       <c r="S3" t="n">
-        <v>94199817.63470544</v>
+        <v>532498735.5978698</v>
       </c>
       <c r="T3" t="n">
-        <v>4766799.269063032</v>
+        <v>756960555.539023</v>
       </c>
       <c r="U3" t="n">
-        <v>3898.066536234894</v>
+        <v>3780.1267250994</v>
       </c>
       <c r="V3" t="n">
-        <v>2765.666306421473</v>
+        <v>2625.128235197004</v>
       </c>
       <c r="W3" t="n">
-        <v>11135.76075262868</v>
+        <v>11210.03649113327</v>
       </c>
       <c r="X3" t="n">
-        <v>3842.842320643159</v>
+        <v>4153.242741288198</v>
       </c>
       <c r="Y3" t="n">
-        <v>3856.736557764523</v>
+        <v>3707.421365734005</v>
       </c>
       <c r="Z3" t="n">
-        <v>5118.040480111893</v>
+        <v>3044.590654540985</v>
       </c>
       <c r="AA3" t="n">
-        <v>12771.08125833898</v>
+        <v>8598.455585258806</v>
       </c>
       <c r="AB3" t="n">
-        <v>3200.007499909667</v>
+        <v>3200.007499925853</v>
       </c>
       <c r="AC3" t="n">
-        <v>3300.007385943635</v>
+        <v>3300.007305271358</v>
       </c>
       <c r="AD3" t="n">
-        <v>8835.554549658964</v>
+        <v>8573.033901703813</v>
       </c>
       <c r="AE3" t="n">
-        <v>3989354529.624828</v>
+        <v>804117233.6705525</v>
       </c>
       <c r="AF3" t="n">
         <v>30</v>
@@ -811,94 +811,94 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29306583600.49166</v>
+        <v>40017973839.45833</v>
       </c>
       <c r="C4" t="n">
         <v>10000000000</v>
       </c>
       <c r="D4" t="n">
-        <v>287041.0292724767</v>
+        <v>91756.8947135247</v>
       </c>
       <c r="E4" t="n">
-        <v>537.7904948594814</v>
+        <v>593.4489269642417</v>
       </c>
       <c r="F4" t="n">
-        <v>821.5008220929687</v>
+        <v>950.1111548710564</v>
       </c>
       <c r="G4" t="n">
-        <v>669.6837586336128</v>
+        <v>683.0243492644793</v>
       </c>
       <c r="H4" t="n">
-        <v>1490.089465123712</v>
+        <v>1497.241496958934</v>
       </c>
       <c r="I4" t="n">
-        <v>1039.518123236298</v>
+        <v>1014.98850522735</v>
       </c>
       <c r="J4" t="n">
-        <v>11846.99523398657</v>
+        <v>13018.75723806507</v>
       </c>
       <c r="K4" t="n">
-        <v>8088.467786337658</v>
+        <v>7793.286306707414</v>
       </c>
       <c r="L4" t="n">
-        <v>67034.44167264599</v>
+        <v>6321.90051356247</v>
       </c>
       <c r="M4" t="n">
-        <v>18297358619.38934</v>
+        <v>93039086.9455533</v>
       </c>
       <c r="N4" t="n">
-        <v>28565235901.96292</v>
+        <v>2311512.042037421</v>
       </c>
       <c r="O4" t="n">
-        <v>9868863.872524071</v>
+        <v>206685.9902812164</v>
       </c>
       <c r="P4" t="n">
-        <v>1068404847.774815</v>
+        <v>185061.953188461</v>
       </c>
       <c r="Q4" t="n">
-        <v>5054.300340778589</v>
+        <v>5045.740113743099</v>
       </c>
       <c r="R4" t="n">
-        <v>3870.8666946085</v>
+        <v>4484.371497097374</v>
       </c>
       <c r="S4" t="n">
-        <v>544193385.5888453</v>
+        <v>1276227.681835242</v>
       </c>
       <c r="T4" t="n">
-        <v>873013772.7805132</v>
+        <v>29638186.90054534</v>
       </c>
       <c r="U4" t="n">
-        <v>3825.71438010236</v>
+        <v>3227.695723914784</v>
       </c>
       <c r="V4" t="n">
-        <v>2838.056537503724</v>
+        <v>2931.455668787592</v>
       </c>
       <c r="W4" t="n">
-        <v>10805.32020641905</v>
+        <v>11717.43063549314</v>
       </c>
       <c r="X4" t="n">
-        <v>4065.478812140158</v>
+        <v>4120.888055557227</v>
       </c>
       <c r="Y4" t="n">
-        <v>3858.16936653764</v>
+        <v>3681.45647151066</v>
       </c>
       <c r="Z4" t="n">
-        <v>3616.931557284944</v>
+        <v>12923.0959642668</v>
       </c>
       <c r="AA4" t="n">
-        <v>7840.228149278023</v>
+        <v>10401.84869813491</v>
       </c>
       <c r="AB4" t="n">
-        <v>3200.00748981199</v>
+        <v>3200.007499946008</v>
       </c>
       <c r="AC4" t="n">
-        <v>3300.007247963821</v>
+        <v>3300.007499851175</v>
       </c>
       <c r="AD4" t="n">
-        <v>14787.73707850316</v>
+        <v>9583.474304164751</v>
       </c>
       <c r="AE4" t="n">
-        <v>6104305.736077084</v>
+        <v>1584989714.061796</v>
       </c>
       <c r="AF4" t="n">
         <v>30</v>
@@ -914,94 +914,94 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>79690296414.77226</v>
+        <v>54909855183.15173</v>
       </c>
       <c r="C5" t="n">
         <v>10000000000</v>
       </c>
       <c r="D5" t="n">
-        <v>77601.15516231407</v>
+        <v>70404897.61348866</v>
       </c>
       <c r="E5" t="n">
-        <v>19335.87425016818</v>
+        <v>27576.69434042027</v>
       </c>
       <c r="F5" t="n">
-        <v>816.3444190722697</v>
+        <v>1041.208420205243</v>
       </c>
       <c r="G5" t="n">
-        <v>684.5929696666037</v>
+        <v>726.7508083098105</v>
       </c>
       <c r="H5" t="n">
-        <v>1442.032586650021</v>
+        <v>1403.265333206196</v>
       </c>
       <c r="I5" t="n">
-        <v>1024.722777083697</v>
+        <v>1135.187008814552</v>
       </c>
       <c r="J5" t="n">
-        <v>15206.92138764948</v>
+        <v>25482.58743905366</v>
       </c>
       <c r="K5" t="n">
-        <v>9853.969795752801</v>
+        <v>6935.336471368898</v>
       </c>
       <c r="L5" t="n">
-        <v>1398.192002253554</v>
+        <v>56966.0426182414</v>
       </c>
       <c r="M5" t="n">
-        <v>464172759.2511168</v>
+        <v>22281211375.43866</v>
       </c>
       <c r="N5" t="n">
-        <v>3877933.754552922</v>
+        <v>28987769248.42976</v>
       </c>
       <c r="O5" t="n">
-        <v>767511.615277727</v>
+        <v>26400948.19248639</v>
       </c>
       <c r="P5" t="n">
-        <v>1220988219.458113</v>
+        <v>1018085.52333579</v>
       </c>
       <c r="Q5" t="n">
-        <v>8743.728893029187</v>
+        <v>6029.104179333222</v>
       </c>
       <c r="R5" t="n">
-        <v>4679.280111591437</v>
+        <v>2708.307448773007</v>
       </c>
       <c r="S5" t="n">
-        <v>28703377.21184154</v>
+        <v>1240121.677223099</v>
       </c>
       <c r="T5" t="n">
-        <v>7169125.336359094</v>
+        <v>457302758.8998862</v>
       </c>
       <c r="U5" t="n">
-        <v>3374.729013243998</v>
+        <v>3033.944168537017</v>
       </c>
       <c r="V5" t="n">
-        <v>2941.107494257887</v>
+        <v>2759.739468520708</v>
       </c>
       <c r="W5" t="n">
-        <v>8691.838345933544</v>
+        <v>10323.6255100682</v>
       </c>
       <c r="X5" t="n">
-        <v>3593.714918950382</v>
+        <v>3427.46759202884</v>
       </c>
       <c r="Y5" t="n">
-        <v>3691.803291088918</v>
+        <v>3764.139174105245</v>
       </c>
       <c r="Z5" t="n">
-        <v>8914.15850534988</v>
+        <v>3105.556072756948</v>
       </c>
       <c r="AA5" t="n">
-        <v>14233.58519351793</v>
+        <v>12115.92717893873</v>
       </c>
       <c r="AB5" t="n">
-        <v>3200.007466192189</v>
+        <v>3200.007499928122</v>
       </c>
       <c r="AC5" t="n">
-        <v>3300.007313573621</v>
+        <v>3300.007499851098</v>
       </c>
       <c r="AD5" t="n">
-        <v>136879.1115532621</v>
+        <v>6401.569904151066</v>
       </c>
       <c r="AE5" t="n">
-        <v>1377682892.098802</v>
+        <v>3474644665.482228</v>
       </c>
       <c r="AF5" t="n">
         <v>30</v>
@@ -1017,94 +1017,94 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>72907076821.92834</v>
+        <v>597379338.5926974</v>
       </c>
       <c r="C6" t="n">
         <v>10000000000</v>
       </c>
       <c r="D6" t="n">
-        <v>2058941.887090093</v>
+        <v>83642.70474846307</v>
       </c>
       <c r="E6" t="n">
-        <v>27476.48387200719</v>
+        <v>1664.647209619292</v>
       </c>
       <c r="F6" t="n">
-        <v>801.9010648503483</v>
+        <v>886.1480910555283</v>
       </c>
       <c r="G6" t="n">
-        <v>747.0321765578465</v>
+        <v>674.7301096302385</v>
       </c>
       <c r="H6" t="n">
-        <v>1429.371939190447</v>
+        <v>1462.105372273341</v>
       </c>
       <c r="I6" t="n">
-        <v>1017.728082078209</v>
+        <v>1252.844151004125</v>
       </c>
       <c r="J6" t="n">
-        <v>25542.26246947533</v>
+        <v>11086.76191349241</v>
       </c>
       <c r="K6" t="n">
-        <v>8592.064154449161</v>
+        <v>6715.886807887688</v>
       </c>
       <c r="L6" t="n">
-        <v>34987.28289170837</v>
+        <v>1664.726498924725</v>
       </c>
       <c r="M6" t="n">
-        <v>262273846.0668807</v>
+        <v>2909839552.225486</v>
       </c>
       <c r="N6" t="n">
-        <v>3710158.010592981</v>
+        <v>34913319841.63943</v>
       </c>
       <c r="O6" t="n">
-        <v>2215933.907947782</v>
+        <v>19103350.57289703</v>
       </c>
       <c r="P6" t="n">
-        <v>7139774599.946707</v>
+        <v>718268.3415500993</v>
       </c>
       <c r="Q6" t="n">
-        <v>6996.895884386404</v>
+        <v>7245.213374269881</v>
       </c>
       <c r="R6" t="n">
-        <v>12476.6239954641</v>
+        <v>4735.212763956139</v>
       </c>
       <c r="S6" t="n">
-        <v>1491861475.535134</v>
+        <v>367784025.2961091</v>
       </c>
       <c r="T6" t="n">
-        <v>6322297.645175063</v>
+        <v>1662019374.989016</v>
       </c>
       <c r="U6" t="n">
-        <v>3326.830425993855</v>
+        <v>3596.38886409861</v>
       </c>
       <c r="V6" t="n">
-        <v>2811.150416210502</v>
+        <v>2814.281553718107</v>
       </c>
       <c r="W6" t="n">
-        <v>8484.266571311586</v>
+        <v>8483.982944085481</v>
       </c>
       <c r="X6" t="n">
-        <v>3549.35360869704</v>
+        <v>3501.200610860276</v>
       </c>
       <c r="Y6" t="n">
-        <v>4116.63080738477</v>
+        <v>3863.627249387579</v>
       </c>
       <c r="Z6" t="n">
-        <v>5636.607074140171</v>
+        <v>25288.15628616048</v>
       </c>
       <c r="AA6" t="n">
-        <v>9212.696367121744</v>
+        <v>16681.7327569057</v>
       </c>
       <c r="AB6" t="n">
-        <v>3200.007499792748</v>
+        <v>3200.007494624017</v>
       </c>
       <c r="AC6" t="n">
-        <v>3300.007469195337</v>
+        <v>3300.007467255966</v>
       </c>
       <c r="AD6" t="n">
-        <v>8032.960076653761</v>
+        <v>72394.99329695746</v>
       </c>
       <c r="AE6" t="n">
-        <v>9130632.18460582</v>
+        <v>11730038.12644063</v>
       </c>
       <c r="AF6" t="n">
         <v>30</v>
@@ -1120,94 +1120,94 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>106916071.5841474</v>
+        <v>114787061470.2912</v>
       </c>
       <c r="C7" t="n">
         <v>10000000000</v>
       </c>
       <c r="D7" t="n">
-        <v>59128.14138243683</v>
+        <v>90620.96220230965</v>
       </c>
       <c r="E7" t="n">
-        <v>594.0788105843642</v>
+        <v>57193.01819374524</v>
       </c>
       <c r="F7" t="n">
-        <v>1026.251744662766</v>
+        <v>955.5261215762916</v>
       </c>
       <c r="G7" t="n">
-        <v>689.0260756949408</v>
+        <v>673.2019391318995</v>
       </c>
       <c r="H7" t="n">
-        <v>1410.208263523083</v>
+        <v>1467.366395708531</v>
       </c>
       <c r="I7" t="n">
-        <v>1169.461383962665</v>
+        <v>1019.810883329989</v>
       </c>
       <c r="J7" t="n">
-        <v>10307.83591115604</v>
+        <v>43658.588946248</v>
       </c>
       <c r="K7" t="n">
-        <v>10613.30361301152</v>
+        <v>6365.333229792978</v>
       </c>
       <c r="L7" t="n">
-        <v>18427.8235000915</v>
+        <v>38937.13725499554</v>
       </c>
       <c r="M7" t="n">
-        <v>22193948.900803</v>
+        <v>16769257636.57204</v>
       </c>
       <c r="N7" t="n">
-        <v>23799973175.83959</v>
+        <v>19576655514.30089</v>
       </c>
       <c r="O7" t="n">
-        <v>6464401.076060515</v>
+        <v>11973850.60869556</v>
       </c>
       <c r="P7" t="n">
-        <v>452293.8851614111</v>
+        <v>8555191142.16056</v>
       </c>
       <c r="Q7" t="n">
-        <v>6307.60076784556</v>
+        <v>6552.226515959604</v>
       </c>
       <c r="R7" t="n">
-        <v>62246.44214758634</v>
+        <v>4122.2556645545</v>
       </c>
       <c r="S7" t="n">
-        <v>483729831.8536873</v>
+        <v>21363329.34506812</v>
       </c>
       <c r="T7" t="n">
-        <v>2292765.79519338</v>
+        <v>11462547.17545144</v>
       </c>
       <c r="U7" t="n">
-        <v>3888.794198858928</v>
+        <v>3454.63501520086</v>
       </c>
       <c r="V7" t="n">
-        <v>2774.225069013999</v>
+        <v>3113.931031696358</v>
       </c>
       <c r="W7" t="n">
-        <v>9753.502618896977</v>
+        <v>9120.125716801043</v>
       </c>
       <c r="X7" t="n">
-        <v>3651.277232579524</v>
+        <v>3604.585870465861</v>
       </c>
       <c r="Y7" t="n">
-        <v>3574.993054149511</v>
+        <v>3708.264864326185</v>
       </c>
       <c r="Z7" t="n">
-        <v>5061.694516108044</v>
+        <v>5353.649445868003</v>
       </c>
       <c r="AA7" t="n">
-        <v>21221.73456683247</v>
+        <v>12740.79884874191</v>
       </c>
       <c r="AB7" t="n">
-        <v>3200.007468920913</v>
+        <v>3200.00749132969</v>
       </c>
       <c r="AC7" t="n">
-        <v>3300.00749996521</v>
+        <v>3300.007445715606</v>
       </c>
       <c r="AD7" t="n">
-        <v>15937.88372492441</v>
+        <v>269549.9942150241</v>
       </c>
       <c r="AE7" t="n">
-        <v>2032422932.018444</v>
+        <v>2471732711.814362</v>
       </c>
       <c r="AF7" t="n">
         <v>30</v>
@@ -1223,94 +1223,94 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>140175283525.3271</v>
+        <v>50425564094.59223</v>
       </c>
       <c r="C8" t="n">
         <v>10000000000</v>
       </c>
       <c r="D8" t="n">
-        <v>259599.5731340122</v>
+        <v>315618210.9154653</v>
       </c>
       <c r="E8" t="n">
-        <v>34093.31681984932</v>
+        <v>13192.42924446925</v>
       </c>
       <c r="F8" t="n">
-        <v>836.4691771337598</v>
+        <v>935.9714991184716</v>
       </c>
       <c r="G8" t="n">
-        <v>678.519906787588</v>
+        <v>686.6394765853433</v>
       </c>
       <c r="H8" t="n">
-        <v>1604.724207194607</v>
+        <v>3903.03474108667</v>
       </c>
       <c r="I8" t="n">
-        <v>1102.708440137834</v>
+        <v>1031.3403679611</v>
       </c>
       <c r="J8" t="n">
-        <v>22162.82486467805</v>
+        <v>10671.36449566017</v>
       </c>
       <c r="K8" t="n">
-        <v>9655.149575685366</v>
+        <v>9631.957186487924</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.176926693318</v>
+        <v>42930.1334362837</v>
       </c>
       <c r="M8" t="n">
-        <v>13550023536.29204</v>
+        <v>36985805.03101483</v>
       </c>
       <c r="N8" t="n">
-        <v>18751901507.259</v>
+        <v>16129889993.61158</v>
       </c>
       <c r="O8" t="n">
-        <v>10897618.43875974</v>
+        <v>59269263.51008808</v>
       </c>
       <c r="P8" t="n">
-        <v>245151.4839847549</v>
+        <v>1294015.045291198</v>
       </c>
       <c r="Q8" t="n">
-        <v>6123.296725004318</v>
+        <v>8001.888719025803</v>
       </c>
       <c r="R8" t="n">
-        <v>3031.486332684741</v>
+        <v>4742.601273436256</v>
       </c>
       <c r="S8" t="n">
-        <v>4513796.333906907</v>
+        <v>124327269.2090402</v>
       </c>
       <c r="T8" t="n">
-        <v>3438568.716983235</v>
+        <v>999458404.4160804</v>
       </c>
       <c r="U8" t="n">
-        <v>3826.860562709257</v>
+        <v>2959.548383404636</v>
       </c>
       <c r="V8" t="n">
-        <v>2792.871714916388</v>
+        <v>2725.501048236752</v>
       </c>
       <c r="W8" t="n">
-        <v>8482.140104456434</v>
+        <v>11979.27953426605</v>
       </c>
       <c r="X8" t="n">
-        <v>3972.104647801052</v>
+        <v>3933.414850236865</v>
       </c>
       <c r="Y8" t="n">
-        <v>4098.675805392189</v>
+        <v>3978.077604137216</v>
       </c>
       <c r="Z8" t="n">
-        <v>8322.97805765603</v>
+        <v>3569.470751686829</v>
       </c>
       <c r="AA8" t="n">
-        <v>13120.78839418443</v>
+        <v>9359.361941913625</v>
       </c>
       <c r="AB8" t="n">
-        <v>3200.007499979324</v>
+        <v>3200.007499892477</v>
       </c>
       <c r="AC8" t="n">
-        <v>3300.007498129149</v>
+        <v>3300.007499857631</v>
       </c>
       <c r="AD8" t="n">
-        <v>9479.200093870091</v>
+        <v>5827.340074969447</v>
       </c>
       <c r="AE8" t="n">
-        <v>2674699980.070711</v>
+        <v>32561593.7321858</v>
       </c>
       <c r="AF8" t="n">
         <v>30</v>
@@ -1326,94 +1326,94 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>707166421.494983</v>
+        <v>126039554537.399</v>
       </c>
       <c r="C9" t="n">
         <v>10000000000</v>
       </c>
       <c r="D9" t="n">
-        <v>179069.22691982</v>
+        <v>368924949.426187</v>
       </c>
       <c r="E9" t="n">
-        <v>1118.302234765941</v>
+        <v>679.054634910497</v>
       </c>
       <c r="F9" t="n">
-        <v>950.3675393254268</v>
+        <v>1075.189766444401</v>
       </c>
       <c r="G9" t="n">
-        <v>682.1186511259361</v>
+        <v>683.5426443494803</v>
       </c>
       <c r="H9" t="n">
-        <v>1363.971320276753</v>
+        <v>1377.477541710372</v>
       </c>
       <c r="I9" t="n">
-        <v>1014.851174935579</v>
+        <v>1384.306840452578</v>
       </c>
       <c r="J9" t="n">
-        <v>12123.91033731762</v>
+        <v>10637.25936762366</v>
       </c>
       <c r="K9" t="n">
-        <v>10237.63766218907</v>
+        <v>10964.67123000443</v>
       </c>
       <c r="L9" t="n">
-        <v>1948.06374058697</v>
+        <v>146445.7191214973</v>
       </c>
       <c r="M9" t="n">
-        <v>24021095677.07534</v>
+        <v>23902685767.32941</v>
       </c>
       <c r="N9" t="n">
-        <v>3513529.328986774</v>
+        <v>3354693.222886406</v>
       </c>
       <c r="O9" t="n">
-        <v>72589373.86329149</v>
+        <v>3506743.551981259</v>
       </c>
       <c r="P9" t="n">
-        <v>4589580.229401691</v>
+        <v>269495.4534402828</v>
       </c>
       <c r="Q9" t="n">
-        <v>6812.242051178093</v>
+        <v>6980.346689772639</v>
       </c>
       <c r="R9" t="n">
-        <v>3619.692257580617</v>
+        <v>6574.395398918751</v>
       </c>
       <c r="S9" t="n">
-        <v>794871.9144615355</v>
+        <v>1258653944.832047</v>
       </c>
       <c r="T9" t="n">
-        <v>6482783.361912289</v>
+        <v>3370486.374484139</v>
       </c>
       <c r="U9" t="n">
-        <v>3231.159438240459</v>
+        <v>3188.460957908062</v>
       </c>
       <c r="V9" t="n">
-        <v>2871.68907090775</v>
+        <v>2805.243335781719</v>
       </c>
       <c r="W9" t="n">
-        <v>10195.85208517973</v>
+        <v>11733.91059415625</v>
       </c>
       <c r="X9" t="n">
-        <v>4075.848509070343</v>
+        <v>3752.6657489984</v>
       </c>
       <c r="Y9" t="n">
-        <v>3915.829275774609</v>
+        <v>3522.022059900025</v>
       </c>
       <c r="Z9" t="n">
-        <v>5693.048222795289</v>
+        <v>3015.403019620838</v>
       </c>
       <c r="AA9" t="n">
-        <v>12316.46638552979</v>
+        <v>10150.34165309528</v>
       </c>
       <c r="AB9" t="n">
-        <v>3200.007355786464</v>
+        <v>3200.007499248063</v>
       </c>
       <c r="AC9" t="n">
-        <v>3300.00736049092</v>
+        <v>3300.007429351157</v>
       </c>
       <c r="AD9" t="n">
-        <v>4974.53216802781</v>
+        <v>8713.278123185732</v>
       </c>
       <c r="AE9" t="n">
-        <v>3376848606.460188</v>
+        <v>5272703555.401546</v>
       </c>
       <c r="AF9" t="n">
         <v>30</v>
@@ -1429,94 +1429,94 @@
         <v>50</v>
       </c>
       <c r="B10" t="n">
-        <v>78035295873.95656</v>
+        <v>82444724854.91632</v>
       </c>
       <c r="C10" t="n">
         <v>10000000000</v>
       </c>
       <c r="D10" t="n">
-        <v>91041.65583609014</v>
+        <v>29125746.77818379</v>
       </c>
       <c r="E10" t="n">
-        <v>21574.74902362588</v>
+        <v>681.6635818312261</v>
       </c>
       <c r="F10" t="n">
-        <v>1094.462065120319</v>
+        <v>834.9932188430466</v>
       </c>
       <c r="G10" t="n">
-        <v>691.1344701885221</v>
+        <v>681.3681924943937</v>
       </c>
       <c r="H10" t="n">
-        <v>1422.963408066084</v>
+        <v>3254.532592369138</v>
       </c>
       <c r="I10" t="n">
-        <v>1023.828950811958</v>
+        <v>1043.245608198992</v>
       </c>
       <c r="J10" t="n">
-        <v>9363.168205133028</v>
+        <v>28450.40853288083</v>
       </c>
       <c r="K10" t="n">
-        <v>10771.97387855237</v>
+        <v>5964.544435399332</v>
       </c>
       <c r="L10" t="n">
-        <v>2326.25000503403</v>
+        <v>9736.8102619152</v>
       </c>
       <c r="M10" t="n">
-        <v>1316999042.015308</v>
+        <v>319614426.4251076</v>
       </c>
       <c r="N10" t="n">
-        <v>14806680545.52085</v>
+        <v>22107210481.34621</v>
       </c>
       <c r="O10" t="n">
-        <v>41799316.1258622</v>
+        <v>17876765.04061577</v>
       </c>
       <c r="P10" t="n">
-        <v>6980074792.139295</v>
+        <v>2735169500.232677</v>
       </c>
       <c r="Q10" t="n">
-        <v>5261.133295072081</v>
+        <v>8350.579374763432</v>
       </c>
       <c r="R10" t="n">
-        <v>4007.78399424375</v>
+        <v>2426.975130019681</v>
       </c>
       <c r="S10" t="n">
-        <v>41465157.73961153</v>
+        <v>2699816.221306383</v>
       </c>
       <c r="T10" t="n">
-        <v>909678.9432705472</v>
+        <v>3116993.54396782</v>
       </c>
       <c r="U10" t="n">
-        <v>3387.423554094853</v>
+        <v>3431.815870060387</v>
       </c>
       <c r="V10" t="n">
-        <v>2861.143715145503</v>
+        <v>2926.981429316229</v>
       </c>
       <c r="W10" t="n">
-        <v>8817.742208700736</v>
+        <v>9012.703428093102</v>
       </c>
       <c r="X10" t="n">
-        <v>3700.751026679695</v>
+        <v>3312.47286056951</v>
       </c>
       <c r="Y10" t="n">
-        <v>4030.625510598667</v>
+        <v>4098.182551867538</v>
       </c>
       <c r="Z10" t="n">
-        <v>9541.029138350856</v>
+        <v>3100.356796408252</v>
       </c>
       <c r="AA10" t="n">
-        <v>12309.88463382508</v>
+        <v>11959.09269971044</v>
       </c>
       <c r="AB10" t="n">
-        <v>3200.007436295582</v>
+        <v>3200.00747618456</v>
       </c>
       <c r="AC10" t="n">
-        <v>3300.007485055169</v>
+        <v>3300.007498595921</v>
       </c>
       <c r="AD10" t="n">
-        <v>23846.8762061108</v>
+        <v>6128.604801391898</v>
       </c>
       <c r="AE10" t="n">
-        <v>3530222600.007625</v>
+        <v>2724957335.914675</v>
       </c>
       <c r="AF10" t="n">
         <v>30</v>
@@ -1532,94 +1532,94 @@
         <v>60</v>
       </c>
       <c r="B11" t="n">
-        <v>81243327748.0278</v>
+        <v>63868035204.53003</v>
       </c>
       <c r="C11" t="n">
         <v>10000000000</v>
       </c>
       <c r="D11" t="n">
-        <v>87122349.66055737</v>
+        <v>81904.90632697399</v>
       </c>
       <c r="E11" t="n">
-        <v>19862.56272411983</v>
+        <v>539.7933980720882</v>
       </c>
       <c r="F11" t="n">
-        <v>852.4131636041814</v>
+        <v>817.0379157834061</v>
       </c>
       <c r="G11" t="n">
-        <v>681.7694821459095</v>
+        <v>673.29901091088</v>
       </c>
       <c r="H11" t="n">
-        <v>1621.834096969574</v>
+        <v>1520.742862360958</v>
       </c>
       <c r="I11" t="n">
-        <v>1020.723124247813</v>
+        <v>1205.931610213413</v>
       </c>
       <c r="J11" t="n">
-        <v>11356.31904942273</v>
+        <v>17516.15682838156</v>
       </c>
       <c r="K11" t="n">
-        <v>6921.943825578732</v>
+        <v>10274.46274957503</v>
       </c>
       <c r="L11" t="n">
-        <v>1662.853436316494</v>
+        <v>4743.538854624127</v>
       </c>
       <c r="M11" t="n">
-        <v>1773428759.906335</v>
+        <v>4651380263.508658</v>
       </c>
       <c r="N11" t="n">
-        <v>5689777315.306376</v>
+        <v>8580389577.918631</v>
       </c>
       <c r="O11" t="n">
-        <v>32403599.6909904</v>
+        <v>316096204.7798815</v>
       </c>
       <c r="P11" t="n">
-        <v>1176962.042019839</v>
+        <v>423908205.2565297</v>
       </c>
       <c r="Q11" t="n">
-        <v>8894.360207981794</v>
+        <v>8795.320297418873</v>
       </c>
       <c r="R11" t="n">
-        <v>3729.211225384029</v>
+        <v>3612.823823584034</v>
       </c>
       <c r="S11" t="n">
-        <v>6119004.909239994</v>
+        <v>1953677.221309867</v>
       </c>
       <c r="T11" t="n">
-        <v>3159390.14533304</v>
+        <v>11817572254.99999</v>
       </c>
       <c r="U11" t="n">
-        <v>3679.211672163151</v>
+        <v>3626.717973912203</v>
       </c>
       <c r="V11" t="n">
-        <v>2906.513967226774</v>
+        <v>2989.59429358283</v>
       </c>
       <c r="W11" t="n">
-        <v>11273.0427031665</v>
+        <v>9650.294441851349</v>
       </c>
       <c r="X11" t="n">
-        <v>4033.430339954601</v>
+        <v>3847.298694137048</v>
       </c>
       <c r="Y11" t="n">
-        <v>3811.702694624721</v>
+        <v>3571.841519492207</v>
       </c>
       <c r="Z11" t="n">
-        <v>7317.187134943494</v>
+        <v>3062.061216118015</v>
       </c>
       <c r="AA11" t="n">
-        <v>15856.0034236621</v>
+        <v>14301.3887721182</v>
       </c>
       <c r="AB11" t="n">
-        <v>3200.007499920833</v>
+        <v>3200.007497693879</v>
       </c>
       <c r="AC11" t="n">
-        <v>3300.007465224476</v>
+        <v>3300.007476071558</v>
       </c>
       <c r="AD11" t="n">
-        <v>7514.23155331425</v>
+        <v>7989.820868779414</v>
       </c>
       <c r="AE11" t="n">
-        <v>3411166445.035409</v>
+        <v>1762654402.391066</v>
       </c>
       <c r="AF11" t="n">
         <v>30</v>
@@ -1635,94 +1635,94 @@
         <v>70</v>
       </c>
       <c r="B12" t="n">
-        <v>652926738.6496747</v>
+        <v>18765624731.59965</v>
       </c>
       <c r="C12" t="n">
         <v>10000000000</v>
       </c>
       <c r="D12" t="n">
-        <v>4115741696.395469</v>
+        <v>87888.82455054708</v>
       </c>
       <c r="E12" t="n">
-        <v>2588.796135167304</v>
+        <v>38413.15854444476</v>
       </c>
       <c r="F12" t="n">
-        <v>913.2720032879348</v>
+        <v>939.088258067681</v>
       </c>
       <c r="G12" t="n">
-        <v>725.2711414679044</v>
+        <v>688.4936765184768</v>
       </c>
       <c r="H12" t="n">
-        <v>1483.906291135284</v>
+        <v>1396.481346743361</v>
       </c>
       <c r="I12" t="n">
-        <v>1272.836744392194</v>
+        <v>1415.731748963305</v>
       </c>
       <c r="J12" t="n">
-        <v>27587.29467138703</v>
+        <v>22192.69647212164</v>
       </c>
       <c r="K12" t="n">
-        <v>6077.38593704781</v>
+        <v>6562.453224102713</v>
       </c>
       <c r="L12" t="n">
-        <v>19946.34118430153</v>
+        <v>1679.549105812798</v>
       </c>
       <c r="M12" t="n">
-        <v>26864625342.78124</v>
+        <v>1100713285.034244</v>
       </c>
       <c r="N12" t="n">
-        <v>21948935503.08453</v>
+        <v>33118839185.53314</v>
       </c>
       <c r="O12" t="n">
-        <v>4259149.374708347</v>
+        <v>9539661.258836711</v>
       </c>
       <c r="P12" t="n">
-        <v>294332.9182242645</v>
+        <v>695942.3007260077</v>
       </c>
       <c r="Q12" t="n">
-        <v>6357.27619873818</v>
+        <v>5275.093245274196</v>
       </c>
       <c r="R12" t="n">
-        <v>39974.21109532392</v>
+        <v>2960.497020338613</v>
       </c>
       <c r="S12" t="n">
-        <v>9296658.389527105</v>
+        <v>63598890.03178965</v>
       </c>
       <c r="T12" t="n">
-        <v>11330870.47835603</v>
+        <v>2264266.173685738</v>
       </c>
       <c r="U12" t="n">
-        <v>3371.564875116594</v>
+        <v>3359.263452302986</v>
       </c>
       <c r="V12" t="n">
-        <v>2934.761767416152</v>
+        <v>2955.153392109096</v>
       </c>
       <c r="W12" t="n">
-        <v>9037.467891708669</v>
+        <v>8927.908868824756</v>
       </c>
       <c r="X12" t="n">
-        <v>3692.143150485014</v>
+        <v>3692.263318020639</v>
       </c>
       <c r="Y12" t="n">
-        <v>3931.369859658851</v>
+        <v>3737.164596835623</v>
       </c>
       <c r="Z12" t="n">
-        <v>2965.674675493842</v>
+        <v>3029.21883118009</v>
       </c>
       <c r="AA12" t="n">
-        <v>17099.41915244307</v>
+        <v>15942.97835921305</v>
       </c>
       <c r="AB12" t="n">
-        <v>3200.007268603067</v>
+        <v>3200.007499978055</v>
       </c>
       <c r="AC12" t="n">
-        <v>3300.007490534186</v>
+        <v>3300.00749995225</v>
       </c>
       <c r="AD12" t="n">
-        <v>5650.301391887496</v>
+        <v>13314.90369644832</v>
       </c>
       <c r="AE12" t="n">
-        <v>2131796458.264968</v>
+        <v>2620701862.351336</v>
       </c>
       <c r="AF12" t="n">
         <v>30</v>
@@ -1738,94 +1738,94 @@
         <v>80</v>
       </c>
       <c r="B13" t="n">
-        <v>203333718.9899848</v>
+        <v>111815595.5645608</v>
       </c>
       <c r="C13" t="n">
         <v>10000000000</v>
       </c>
       <c r="D13" t="n">
-        <v>291119920773.3688</v>
+        <v>64099.22245047117</v>
       </c>
       <c r="E13" t="n">
-        <v>28185.7170482293</v>
+        <v>10265.13304925486</v>
       </c>
       <c r="F13" t="n">
-        <v>886.3057322688153</v>
+        <v>1019.012969724323</v>
       </c>
       <c r="G13" t="n">
-        <v>724.6461033329091</v>
+        <v>695.6052692542629</v>
       </c>
       <c r="H13" t="n">
-        <v>1440.47547972934</v>
+        <v>1412.688856400165</v>
       </c>
       <c r="I13" t="n">
-        <v>1382.231600941784</v>
+        <v>1024.602074302783</v>
       </c>
       <c r="J13" t="n">
-        <v>11445.16617942225</v>
+        <v>9460.827645978285</v>
       </c>
       <c r="K13" t="n">
-        <v>9459.070452503431</v>
+        <v>9203.352508117065</v>
       </c>
       <c r="L13" t="n">
-        <v>15263.50834246864</v>
+        <v>1500.925428261856</v>
       </c>
       <c r="M13" t="n">
-        <v>2492767694.449735</v>
+        <v>12584771939.13376</v>
       </c>
       <c r="N13" t="n">
-        <v>12570663750.16346</v>
+        <v>17162077022.88617</v>
       </c>
       <c r="O13" t="n">
-        <v>49767860.5871146</v>
+        <v>41021957.04291794</v>
       </c>
       <c r="P13" t="n">
-        <v>638652513.35042</v>
+        <v>537924.4061980364</v>
       </c>
       <c r="Q13" t="n">
-        <v>6930.82982426641</v>
+        <v>6127.975076225232</v>
       </c>
       <c r="R13" t="n">
-        <v>7014.687275773457</v>
+        <v>4109.668978781392</v>
       </c>
       <c r="S13" t="n">
-        <v>152940.1591440907</v>
+        <v>2454102.579139776</v>
       </c>
       <c r="T13" t="n">
-        <v>6527529.062211465</v>
+        <v>5613680.364962758</v>
       </c>
       <c r="U13" t="n">
-        <v>3806.057387834969</v>
+        <v>3395.417411269591</v>
       </c>
       <c r="V13" t="n">
-        <v>2850.915642653572</v>
+        <v>3027.3798565997</v>
       </c>
       <c r="W13" t="n">
-        <v>8125.859719041409</v>
+        <v>8798.281723671666</v>
       </c>
       <c r="X13" t="n">
-        <v>4090.724144875489</v>
+        <v>3973.695750617461</v>
       </c>
       <c r="Y13" t="n">
-        <v>3770.973939729774</v>
+        <v>3942.150330377656</v>
       </c>
       <c r="Z13" t="n">
-        <v>4392.371944630519</v>
+        <v>6756.943886520283</v>
       </c>
       <c r="AA13" t="n">
-        <v>14378.26030786072</v>
+        <v>8758.086113083547</v>
       </c>
       <c r="AB13" t="n">
-        <v>3200.00749830769</v>
+        <v>3200.007499969257</v>
       </c>
       <c r="AC13" t="n">
-        <v>3300.007499622136</v>
+        <v>3300.007499962357</v>
       </c>
       <c r="AD13" t="n">
-        <v>13841.32671815389</v>
+        <v>11344.70473039405</v>
       </c>
       <c r="AE13" t="n">
-        <v>3026657731.489112</v>
+        <v>3463783588.044296</v>
       </c>
       <c r="AF13" t="n">
         <v>30</v>
@@ -1841,94 +1841,94 @@
         <v>90</v>
       </c>
       <c r="B14" t="n">
-        <v>142944028949.1653</v>
+        <v>87709100400.5162</v>
       </c>
       <c r="C14" t="n">
         <v>10000000000</v>
       </c>
       <c r="D14" t="n">
-        <v>71639.32546856943</v>
+        <v>28817953.83626246</v>
       </c>
       <c r="E14" t="n">
-        <v>26270.51271893489</v>
+        <v>665.6560362262387</v>
       </c>
       <c r="F14" t="n">
-        <v>829.098053998028</v>
+        <v>1225.818586318892</v>
       </c>
       <c r="G14" t="n">
-        <v>721.970824896481</v>
+        <v>713.7460678332449</v>
       </c>
       <c r="H14" t="n">
-        <v>1451.621142682461</v>
+        <v>1426.019899932887</v>
       </c>
       <c r="I14" t="n">
-        <v>1047.344653559874</v>
+        <v>1292.560529657783</v>
       </c>
       <c r="J14" t="n">
-        <v>13451.59401426055</v>
+        <v>41435.83525116223</v>
       </c>
       <c r="K14" t="n">
-        <v>10445.42901952726</v>
+        <v>7796.136651792025</v>
       </c>
       <c r="L14" t="n">
-        <v>1851.605824499005</v>
+        <v>1636.357979821807</v>
       </c>
       <c r="M14" t="n">
-        <v>30357050311.36409</v>
+        <v>13218100809.06885</v>
       </c>
       <c r="N14" t="n">
-        <v>2227809.843847178</v>
+        <v>17048149062.48291</v>
       </c>
       <c r="O14" t="n">
-        <v>31483748.31174041</v>
+        <v>7830634.877825046</v>
       </c>
       <c r="P14" t="n">
-        <v>3153960132.486668</v>
+        <v>795620.6713770136</v>
       </c>
       <c r="Q14" t="n">
-        <v>8556.545368521851</v>
+        <v>6129.618090093083</v>
       </c>
       <c r="R14" t="n">
-        <v>8708.448478876577</v>
+        <v>34569.80192032253</v>
       </c>
       <c r="S14" t="n">
-        <v>9298714.983264929</v>
+        <v>59469147.02211287</v>
       </c>
       <c r="T14" t="n">
-        <v>5497748.409073874</v>
+        <v>8651485.016635185</v>
       </c>
       <c r="U14" t="n">
-        <v>3783.057274500306</v>
+        <v>3694.608085689463</v>
       </c>
       <c r="V14" t="n">
-        <v>2813.739079541231</v>
+        <v>2618.216868484293</v>
       </c>
       <c r="W14" t="n">
-        <v>10246.66453393685</v>
+        <v>9109.280869755656</v>
       </c>
       <c r="X14" t="n">
-        <v>3293.352612927531</v>
+        <v>3642.897524969793</v>
       </c>
       <c r="Y14" t="n">
-        <v>4224.532471319146</v>
+        <v>4171.550913005834</v>
       </c>
       <c r="Z14" t="n">
-        <v>5117.71628106451</v>
+        <v>4870.567345334359</v>
       </c>
       <c r="AA14" t="n">
-        <v>11113.55586021582</v>
+        <v>15773.74412422513</v>
       </c>
       <c r="AB14" t="n">
-        <v>3200.007499886909</v>
+        <v>3200.007317754952</v>
       </c>
       <c r="AC14" t="n">
-        <v>3300.007254853598</v>
+        <v>3300.007499561794</v>
       </c>
       <c r="AD14" t="n">
-        <v>5769.112279699586</v>
+        <v>12466.2292039714</v>
       </c>
       <c r="AE14" t="n">
-        <v>3384904897.357758</v>
+        <v>224142922.9536245</v>
       </c>
       <c r="AF14" t="n">
         <v>30</v>
@@ -1944,94 +1944,94 @@
         <v>100</v>
       </c>
       <c r="B15" t="n">
-        <v>32326612610.96099</v>
+        <v>73575427.2359343</v>
       </c>
       <c r="C15" t="n">
         <v>10000000000</v>
       </c>
       <c r="D15" t="n">
-        <v>1579599724.043334</v>
+        <v>1893070080.815795</v>
       </c>
       <c r="E15" t="n">
-        <v>24356.05389760639</v>
+        <v>20122.26857537593</v>
       </c>
       <c r="F15" t="n">
-        <v>899.5228896060697</v>
+        <v>845.9459836562686</v>
       </c>
       <c r="G15" t="n">
-        <v>717.6455775533843</v>
+        <v>745.3718320771932</v>
       </c>
       <c r="H15" t="n">
-        <v>1484.446240912377</v>
+        <v>1449.236290579543</v>
       </c>
       <c r="I15" t="n">
-        <v>1085.140360171823</v>
+        <v>1008.643042058573</v>
       </c>
       <c r="J15" t="n">
-        <v>17248.85591426834</v>
+        <v>9394.54837165211</v>
       </c>
       <c r="K15" t="n">
-        <v>8892.723997576682</v>
+        <v>10653.26369844907</v>
       </c>
       <c r="L15" t="n">
-        <v>13187.69149590654</v>
+        <v>1993.872839383558</v>
       </c>
       <c r="M15" t="n">
-        <v>5229281669.875961</v>
+        <v>50290884.94470926</v>
       </c>
       <c r="N15" t="n">
-        <v>4959381293.102894</v>
+        <v>12800595112.30182</v>
       </c>
       <c r="O15" t="n">
-        <v>100623853.0104402</v>
+        <v>30859553.04570713</v>
       </c>
       <c r="P15" t="n">
-        <v>24132505.06196545</v>
+        <v>352079.8760696846</v>
       </c>
       <c r="Q15" t="n">
-        <v>5908.393417152032</v>
+        <v>9062.722199537588</v>
       </c>
       <c r="R15" t="n">
-        <v>6356.010877940211</v>
+        <v>4784.278157774255</v>
       </c>
       <c r="S15" t="n">
-        <v>23537111.05289424</v>
+        <v>50124186.87673858</v>
       </c>
       <c r="T15" t="n">
-        <v>19698869.70879717</v>
+        <v>2502031458.178163</v>
       </c>
       <c r="U15" t="n">
-        <v>3148.512074030189</v>
+        <v>3495.501922714004</v>
       </c>
       <c r="V15" t="n">
-        <v>2598.086355418125</v>
+        <v>2789.782570064291</v>
       </c>
       <c r="W15" t="n">
-        <v>11757.7808125945</v>
+        <v>11744.40538844486</v>
       </c>
       <c r="X15" t="n">
-        <v>3486.929403367715</v>
+        <v>3745.537491333404</v>
       </c>
       <c r="Y15" t="n">
-        <v>3827.353262734274</v>
+        <v>3674.315800630041</v>
       </c>
       <c r="Z15" t="n">
-        <v>3658.550307349382</v>
+        <v>12960.87676405678</v>
       </c>
       <c r="AA15" t="n">
-        <v>8900.76919813556</v>
+        <v>9937.00555215745</v>
       </c>
       <c r="AB15" t="n">
-        <v>3200.007421476333</v>
+        <v>3200.007446166483</v>
       </c>
       <c r="AC15" t="n">
-        <v>3300.007499773294</v>
+        <v>3300.007496481491</v>
       </c>
       <c r="AD15" t="n">
-        <v>7608.638475712456</v>
+        <v>11316.33530443159</v>
       </c>
       <c r="AE15" t="n">
-        <v>1462729044.784166</v>
+        <v>1752131532.037101</v>
       </c>
       <c r="AF15" t="n">
         <v>30</v>
